--- a/public/excel/01_Fertilizers.xlsx
+++ b/public/excel/01_Fertilizers.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="8895"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="269">
   <si>
     <t>Наименование</t>
   </si>
@@ -41,20 +44,798 @@
   </si>
   <si>
     <t>Культура ID</t>
+  </si>
+  <si>
+    <t>Удобрение 1</t>
+  </si>
+  <si>
+    <t>Сельский</t>
+  </si>
+  <si>
+    <t>Назначение 1</t>
+  </si>
+  <si>
+    <t>Описание 1</t>
+  </si>
+  <si>
+    <t>Удобрение 2</t>
+  </si>
+  <si>
+    <t>Описание 2</t>
+  </si>
+  <si>
+    <t>Назначение 2</t>
+  </si>
+  <si>
+    <t>Удобрение 3</t>
+  </si>
+  <si>
+    <t>Описание 3</t>
+  </si>
+  <si>
+    <t>Назначение 3</t>
+  </si>
+  <si>
+    <t>Удобрение 4</t>
+  </si>
+  <si>
+    <t>Описание 4</t>
+  </si>
+  <si>
+    <t>Назначение 4</t>
+  </si>
+  <si>
+    <t>Удобрение 5</t>
+  </si>
+  <si>
+    <t>Описание 5</t>
+  </si>
+  <si>
+    <t>Назначение 5</t>
+  </si>
+  <si>
+    <t>Удобрение 6</t>
+  </si>
+  <si>
+    <t>Описание 6</t>
+  </si>
+  <si>
+    <t>Назначение 6</t>
+  </si>
+  <si>
+    <t>Удобрение 7</t>
+  </si>
+  <si>
+    <t>Описание 7</t>
+  </si>
+  <si>
+    <t>Назначение 7</t>
+  </si>
+  <si>
+    <t>Удобрение 8</t>
+  </si>
+  <si>
+    <t>Описание 8</t>
+  </si>
+  <si>
+    <t>Назначение 8</t>
+  </si>
+  <si>
+    <t>Удобрение 9</t>
+  </si>
+  <si>
+    <t>Описание 9</t>
+  </si>
+  <si>
+    <t>Назначение 9</t>
+  </si>
+  <si>
+    <t>Удобрение 10</t>
+  </si>
+  <si>
+    <t>Описание 10</t>
+  </si>
+  <si>
+    <t>Назначение 10</t>
+  </si>
+  <si>
+    <t>Удобрение 11</t>
+  </si>
+  <si>
+    <t>Описание 11</t>
+  </si>
+  <si>
+    <t>Назначение 11</t>
+  </si>
+  <si>
+    <t>Удобрение 12</t>
+  </si>
+  <si>
+    <t>Описание 12</t>
+  </si>
+  <si>
+    <t>Назначение 12</t>
+  </si>
+  <si>
+    <t>Удобрение 13</t>
+  </si>
+  <si>
+    <t>Описание 13</t>
+  </si>
+  <si>
+    <t>Назначение 13</t>
+  </si>
+  <si>
+    <t>Удобрение 14</t>
+  </si>
+  <si>
+    <t>Описание 14</t>
+  </si>
+  <si>
+    <t>Назначение 14</t>
+  </si>
+  <si>
+    <t>Удобрение 15</t>
+  </si>
+  <si>
+    <t>Описание 15</t>
+  </si>
+  <si>
+    <t>Назначение 15</t>
+  </si>
+  <si>
+    <t>Удобрение 16</t>
+  </si>
+  <si>
+    <t>Описание 16</t>
+  </si>
+  <si>
+    <t>Назначение 16</t>
+  </si>
+  <si>
+    <t>Удобрение 17</t>
+  </si>
+  <si>
+    <t>Описание 17</t>
+  </si>
+  <si>
+    <t>Назначение 17</t>
+  </si>
+  <si>
+    <t>Удобрение 18</t>
+  </si>
+  <si>
+    <t>Описание 18</t>
+  </si>
+  <si>
+    <t>Назначение 18</t>
+  </si>
+  <si>
+    <t>Удобрение 19</t>
+  </si>
+  <si>
+    <t>Описание 19</t>
+  </si>
+  <si>
+    <t>Назначение 19</t>
+  </si>
+  <si>
+    <t>Удобрение 20</t>
+  </si>
+  <si>
+    <t>Описание 20</t>
+  </si>
+  <si>
+    <t>Назначение 20</t>
+  </si>
+  <si>
+    <t>Удобрение 21</t>
+  </si>
+  <si>
+    <t>Описание 21</t>
+  </si>
+  <si>
+    <t>Назначение 21</t>
+  </si>
+  <si>
+    <t>Удобрение 22</t>
+  </si>
+  <si>
+    <t>Описание 22</t>
+  </si>
+  <si>
+    <t>Назначение 22</t>
+  </si>
+  <si>
+    <t>Удобрение 23</t>
+  </si>
+  <si>
+    <t>Описание 23</t>
+  </si>
+  <si>
+    <t>Назначение 23</t>
+  </si>
+  <si>
+    <t>Удобрение 24</t>
+  </si>
+  <si>
+    <t>Описание 24</t>
+  </si>
+  <si>
+    <t>Назначение 24</t>
+  </si>
+  <si>
+    <t>Удобрение 25</t>
+  </si>
+  <si>
+    <t>Описание 25</t>
+  </si>
+  <si>
+    <t>Назначение 25</t>
+  </si>
+  <si>
+    <t>Удобрение 26</t>
+  </si>
+  <si>
+    <t>Описание 26</t>
+  </si>
+  <si>
+    <t>Назначение 26</t>
+  </si>
+  <si>
+    <t>Удобрение 27</t>
+  </si>
+  <si>
+    <t>Описание 27</t>
+  </si>
+  <si>
+    <t>Назначение 27</t>
+  </si>
+  <si>
+    <t>Удобрение 28</t>
+  </si>
+  <si>
+    <t>Описание 28</t>
+  </si>
+  <si>
+    <t>Назначение 28</t>
+  </si>
+  <si>
+    <t>Удобрение 29</t>
+  </si>
+  <si>
+    <t>Описание 29</t>
+  </si>
+  <si>
+    <t>Назначение 29</t>
+  </si>
+  <si>
+    <t>Удобрение 30</t>
+  </si>
+  <si>
+    <t>Описание 30</t>
+  </si>
+  <si>
+    <t>Назначение 30</t>
+  </si>
+  <si>
+    <t>Удобрение 31</t>
+  </si>
+  <si>
+    <t>Описание 31</t>
+  </si>
+  <si>
+    <t>Назначение 31</t>
+  </si>
+  <si>
+    <t>Удобрение 32</t>
+  </si>
+  <si>
+    <t>Описание 32</t>
+  </si>
+  <si>
+    <t>Назначение 32</t>
+  </si>
+  <si>
+    <t>Удобрение 33</t>
+  </si>
+  <si>
+    <t>Описание 33</t>
+  </si>
+  <si>
+    <t>Назначение 33</t>
+  </si>
+  <si>
+    <t>Удобрение 34</t>
+  </si>
+  <si>
+    <t>Описание 34</t>
+  </si>
+  <si>
+    <t>Назначение 34</t>
+  </si>
+  <si>
+    <t>Удобрение 35</t>
+  </si>
+  <si>
+    <t>Описание 35</t>
+  </si>
+  <si>
+    <t>Назначение 35</t>
+  </si>
+  <si>
+    <t>Удобрение 36</t>
+  </si>
+  <si>
+    <t>Описание 36</t>
+  </si>
+  <si>
+    <t>Назначение 36</t>
+  </si>
+  <si>
+    <t>Удобрение 37</t>
+  </si>
+  <si>
+    <t>Описание 37</t>
+  </si>
+  <si>
+    <t>Назначение 37</t>
+  </si>
+  <si>
+    <t>Удобрение 38</t>
+  </si>
+  <si>
+    <t>Описание 38</t>
+  </si>
+  <si>
+    <t>Назначение 38</t>
+  </si>
+  <si>
+    <t>Удобрение 39</t>
+  </si>
+  <si>
+    <t>Описание 39</t>
+  </si>
+  <si>
+    <t>Назначение 39</t>
+  </si>
+  <si>
+    <t>Удобрение 40</t>
+  </si>
+  <si>
+    <t>Описание 40</t>
+  </si>
+  <si>
+    <t>Назначение 40</t>
+  </si>
+  <si>
+    <t>Удобрение 41</t>
+  </si>
+  <si>
+    <t>Описание 41</t>
+  </si>
+  <si>
+    <t>Назначение 41</t>
+  </si>
+  <si>
+    <t>Удобрение 42</t>
+  </si>
+  <si>
+    <t>Описание 42</t>
+  </si>
+  <si>
+    <t>Назначение 42</t>
+  </si>
+  <si>
+    <t>Удобрение 43</t>
+  </si>
+  <si>
+    <t>Описание 43</t>
+  </si>
+  <si>
+    <t>Назначение 43</t>
+  </si>
+  <si>
+    <t>Удобрение 44</t>
+  </si>
+  <si>
+    <t>Описание 44</t>
+  </si>
+  <si>
+    <t>Назначение 44</t>
+  </si>
+  <si>
+    <t>Удобрение 45</t>
+  </si>
+  <si>
+    <t>Описание 45</t>
+  </si>
+  <si>
+    <t>Назначение 45</t>
+  </si>
+  <si>
+    <t>Удобрение 46</t>
+  </si>
+  <si>
+    <t>Описание 46</t>
+  </si>
+  <si>
+    <t>Назначение 46</t>
+  </si>
+  <si>
+    <t>Удобрение 47</t>
+  </si>
+  <si>
+    <t>Описание 47</t>
+  </si>
+  <si>
+    <t>Назначение 47</t>
+  </si>
+  <si>
+    <t>Удобрение 48</t>
+  </si>
+  <si>
+    <t>Описание 48</t>
+  </si>
+  <si>
+    <t>Назначение 48</t>
+  </si>
+  <si>
+    <t>Удобрение 49</t>
+  </si>
+  <si>
+    <t>Описание 49</t>
+  </si>
+  <si>
+    <t>Назначение 49</t>
+  </si>
+  <si>
+    <t>Удобрение 50</t>
+  </si>
+  <si>
+    <t>Описание 50</t>
+  </si>
+  <si>
+    <t>Назначение 50</t>
+  </si>
+  <si>
+    <t>Удобрение 51</t>
+  </si>
+  <si>
+    <t>Описание 51</t>
+  </si>
+  <si>
+    <t>Назначение 51</t>
+  </si>
+  <si>
+    <t>Удобрение 52</t>
+  </si>
+  <si>
+    <t>Описание 52</t>
+  </si>
+  <si>
+    <t>Назначение 52</t>
+  </si>
+  <si>
+    <t>Удобрение 53</t>
+  </si>
+  <si>
+    <t>Описание 53</t>
+  </si>
+  <si>
+    <t>Назначение 53</t>
+  </si>
+  <si>
+    <t>Удобрение 54</t>
+  </si>
+  <si>
+    <t>Описание 54</t>
+  </si>
+  <si>
+    <t>Назначение 54</t>
+  </si>
+  <si>
+    <t>Удобрение 55</t>
+  </si>
+  <si>
+    <t>Описание 55</t>
+  </si>
+  <si>
+    <t>Назначение 55</t>
+  </si>
+  <si>
+    <t>Удобрение 56</t>
+  </si>
+  <si>
+    <t>Описание 56</t>
+  </si>
+  <si>
+    <t>Назначение 56</t>
+  </si>
+  <si>
+    <t>Удобрение 57</t>
+  </si>
+  <si>
+    <t>Описание 57</t>
+  </si>
+  <si>
+    <t>Назначение 57</t>
+  </si>
+  <si>
+    <t>Удобрение 58</t>
+  </si>
+  <si>
+    <t>Описание 58</t>
+  </si>
+  <si>
+    <t>Назначение 58</t>
+  </si>
+  <si>
+    <t>Удобрение 59</t>
+  </si>
+  <si>
+    <t>Описание 59</t>
+  </si>
+  <si>
+    <t>Назначение 59</t>
+  </si>
+  <si>
+    <t>Удобрение 60</t>
+  </si>
+  <si>
+    <t>Описание 60</t>
+  </si>
+  <si>
+    <t>Назначение 60</t>
+  </si>
+  <si>
+    <t>Удобрение 61</t>
+  </si>
+  <si>
+    <t>Описание 61</t>
+  </si>
+  <si>
+    <t>Назначение 61</t>
+  </si>
+  <si>
+    <t>Удобрение 62</t>
+  </si>
+  <si>
+    <t>Описание 62</t>
+  </si>
+  <si>
+    <t>Назначение 62</t>
+  </si>
+  <si>
+    <t>Удобрение 63</t>
+  </si>
+  <si>
+    <t>Описание 63</t>
+  </si>
+  <si>
+    <t>Назначение 63</t>
+  </si>
+  <si>
+    <t>Удобрение 64</t>
+  </si>
+  <si>
+    <t>Описание 64</t>
+  </si>
+  <si>
+    <t>Назначение 64</t>
+  </si>
+  <si>
+    <t>Удобрение 65</t>
+  </si>
+  <si>
+    <t>Описание 65</t>
+  </si>
+  <si>
+    <t>Назначение 65</t>
+  </si>
+  <si>
+    <t>Удобрение 66</t>
+  </si>
+  <si>
+    <t>Описание 66</t>
+  </si>
+  <si>
+    <t>Назначение 66</t>
+  </si>
+  <si>
+    <t>Удобрение 67</t>
+  </si>
+  <si>
+    <t>Описание 67</t>
+  </si>
+  <si>
+    <t>Назначение 67</t>
+  </si>
+  <si>
+    <t>Удобрение 68</t>
+  </si>
+  <si>
+    <t>Описание 68</t>
+  </si>
+  <si>
+    <t>Назначение 68</t>
+  </si>
+  <si>
+    <t>Удобрение 69</t>
+  </si>
+  <si>
+    <t>Описание 69</t>
+  </si>
+  <si>
+    <t>Назначение 69</t>
+  </si>
+  <si>
+    <t>Удобрение 70</t>
+  </si>
+  <si>
+    <t>Описание 70</t>
+  </si>
+  <si>
+    <t>Назначение 70</t>
+  </si>
+  <si>
+    <t>Удобрение 71</t>
+  </si>
+  <si>
+    <t>Описание 71</t>
+  </si>
+  <si>
+    <t>Назначение 71</t>
+  </si>
+  <si>
+    <t>Удобрение 72</t>
+  </si>
+  <si>
+    <t>Описание 72</t>
+  </si>
+  <si>
+    <t>Назначение 72</t>
+  </si>
+  <si>
+    <t>Удобрение 73</t>
+  </si>
+  <si>
+    <t>Описание 73</t>
+  </si>
+  <si>
+    <t>Назначение 73</t>
+  </si>
+  <si>
+    <t>Удобрение 74</t>
+  </si>
+  <si>
+    <t>Описание 74</t>
+  </si>
+  <si>
+    <t>Назначение 74</t>
+  </si>
+  <si>
+    <t>Удобрение 75</t>
+  </si>
+  <si>
+    <t>Описание 75</t>
+  </si>
+  <si>
+    <t>Назначение 75</t>
+  </si>
+  <si>
+    <t>Удобрение 76</t>
+  </si>
+  <si>
+    <t>Описание 76</t>
+  </si>
+  <si>
+    <t>Назначение 76</t>
+  </si>
+  <si>
+    <t>Удобрение 77</t>
+  </si>
+  <si>
+    <t>Описание 77</t>
+  </si>
+  <si>
+    <t>Назначение 77</t>
+  </si>
+  <si>
+    <t>Удобрение 78</t>
+  </si>
+  <si>
+    <t>Описание 78</t>
+  </si>
+  <si>
+    <t>Назначение 78</t>
+  </si>
+  <si>
+    <t>Удобрение 79</t>
+  </si>
+  <si>
+    <t>Описание 79</t>
+  </si>
+  <si>
+    <t>Назначение 79</t>
+  </si>
+  <si>
+    <t>Удобрение 80</t>
+  </si>
+  <si>
+    <t>Описание 80</t>
+  </si>
+  <si>
+    <t>Назначение 80</t>
+  </si>
+  <si>
+    <t>Удобрение 81</t>
+  </si>
+  <si>
+    <t>Описание 81</t>
+  </si>
+  <si>
+    <t>Назначение 81</t>
+  </si>
+  <si>
+    <t>Удобрение 82</t>
+  </si>
+  <si>
+    <t>Описание 82</t>
+  </si>
+  <si>
+    <t>Назначение 82</t>
+  </si>
+  <si>
+    <t>Удобрение 83</t>
+  </si>
+  <si>
+    <t>Описание 83</t>
+  </si>
+  <si>
+    <t>Назначение 83</t>
+  </si>
+  <si>
+    <t>Удобрение 84</t>
+  </si>
+  <si>
+    <t>Описание 84</t>
+  </si>
+  <si>
+    <t>Назначение 84</t>
+  </si>
+  <si>
+    <t>Удобрение 85</t>
+  </si>
+  <si>
+    <t>Описание 85</t>
+  </si>
+  <si>
+    <t>Назначение 85</t>
+  </si>
+  <si>
+    <t>Удобрение 86</t>
+  </si>
+  <si>
+    <t>Описание 86</t>
+  </si>
+  <si>
+    <t>Назначение 86</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -63,39 +844,36 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -285,23 +1063,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.43"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -329,11 +1112,2764 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>80</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>90</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>110</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>120</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>130</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>140</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>150</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>160</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>170</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>180</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>190</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>200</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>210</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>220</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>230</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>240</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>250</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>260</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>270</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>280</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>290</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>300</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>310</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>320</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>330</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>340</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>350</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>360</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>370</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>380</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>390</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>400</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>410</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>420</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>430</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>440</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>450</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>460</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>470</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>480</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>490</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>500</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>510</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>520</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54">
+        <v>530</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>540</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>550</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A57" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>560</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>570</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59">
+        <v>580</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>590</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>600</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>61</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62">
+        <v>610</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>620</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <v>630</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65">
+        <v>640</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <v>65</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66">
+        <v>650</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>660</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>670</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>68</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <v>680</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>69</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70">
+        <v>690</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71">
+        <v>700</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>710</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73">
+        <v>720</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A74" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>730</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A75" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75">
+        <v>740</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A76" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <v>750</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>76</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>760</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A78" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>77</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>770</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A79" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79">
+        <v>780</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A80" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80">
+        <v>790</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A81" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81">
+        <v>800</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A82" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82">
+        <v>810</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A83" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <v>82</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83">
+        <v>820</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A84" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <v>83</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84">
+        <v>830</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85">
+        <v>840</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A86" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86">
+        <v>850</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A87" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <v>86</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87">
+        <v>860</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>